--- a/BackTest/2020-01-21 BackTest XLM.xlsx
+++ b/BackTest/2020-01-21 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2002,11 +2002,17 @@
         <v>187136.60753526</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>68.37</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2041,17 @@
         <v>187144.60753526</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>68.34999999999999</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2080,17 @@
         <v>183694.62753526</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>68.68000000000001</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2119,17 @@
         <v>178675.08633526</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>68.26000000000001</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2158,17 @@
         <v>179218.60553526</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>67.92</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2201,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2238,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2275,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2308,17 @@
         <v>179912.42233526</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>67.94</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2351,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2384,17 @@
         <v>37860.18403526003</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>67.61</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2423,17 @@
         <v>57854.18403526003</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>68.31999999999999</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2462,17 @@
         <v>73401.25913526003</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>68.40000000000001</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2501,17 @@
         <v>73363.52323526003</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>68.59999999999999</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2540,17 @@
         <v>69673.87573526002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>68.55</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2579,17 @@
         <v>69673.87573526002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>68.18000000000001</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2618,17 @@
         <v>68629.74693526002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>68.18000000000001</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2657,17 @@
         <v>68629.74693526002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>68.04000000000001</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2696,17 @@
         <v>67565.74693526002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>68.04000000000001</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2735,17 @@
         <v>47719.31043526002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>67.86</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2774,17 @@
         <v>48148.31043526002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>67.73999999999999</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2813,17 @@
         <v>48148.31043526002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>67.89</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2852,17 @@
         <v>111284.16043526</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>67.89</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2891,17 @@
         <v>111310.58383526</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>68</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2930,17 @@
         <v>111323.12773526</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>68.18000000000001</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2969,17 @@
         <v>59703.61833526001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>68.40000000000001</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3008,17 @@
         <v>59703.61833526001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>68.23999999999999</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3047,17 @@
         <v>59703.61833526001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>68.23999999999999</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3086,17 @@
         <v>68459.41103526001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>68.23999999999999</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3125,17 @@
         <v>68459.41103526001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>68.45999999999999</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3164,17 @@
         <v>73459.41103526001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>68.45999999999999</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3203,17 @@
         <v>73459.41103526001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>68.51000000000001</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3246,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3279,17 @@
         <v>83774.23333526001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>68.55</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3322,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3359,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3396,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3433,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3470,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3507,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3544,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3581,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3618,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3655,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3692,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3729,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3766,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3803,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3840,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3877,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3914,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3951,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +3988,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4025,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4062,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4099,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4136,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4169,17 @@
         <v>-190514.97160277</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>67.98999999999999</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4208,17 @@
         <v>-190514.97160277</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>67.91</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4247,17 @@
         <v>-180577.62700277</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>67.91</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4286,17 @@
         <v>-157477.62700277</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>68.02</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4325,17 @@
         <v>-159071.82430277</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>68.75</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4364,17 @@
         <v>-159585.78630277</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>68.69</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4403,17 @@
         <v>-159585.78630277</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>68.59</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4442,17 @@
         <v>-168590.33640277</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>68.59</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4481,17 @@
         <v>-168361.18340277</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>68.39</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4520,17 @@
         <v>-168561.18340277</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>68.48</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4559,17 @@
         <v>-168042.18340277</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>68.37</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4598,17 @@
         <v>-161497.82860277</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>68.48999999999999</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4637,17 @@
         <v>-162498.82860277</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>68.58</v>
+      </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4676,17 @@
         <v>-82705.76680276997</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>68.17</v>
+      </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4715,17 @@
         <v>272116.44493003</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>68.25</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4754,17 @@
         <v>269377.93963003</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>68.89</v>
+      </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4793,17 @@
         <v>252796.34333003</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>68.37</v>
+      </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4832,17 @@
         <v>253279.18463003</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>68.09999999999999</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4871,17 @@
         <v>132795.43363003</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>68.2</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4910,17 @@
         <v>-207147.36936997</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>68.16</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4949,17 @@
         <v>-207147.36936997</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>68.12</v>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4988,17 @@
         <v>-178595.28126997</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>68.12</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +5027,17 @@
         <v>-129896.40906997</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>68.17</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +5066,17 @@
         <v>-157587.40906997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>68.56</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +5105,17 @@
         <v>-148462.18470634</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>68.48</v>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +5144,17 @@
         <v>-148462.18470634</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>68.75</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +5183,17 @@
         <v>-147927.18470634</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>68.75</v>
+      </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +5222,17 @@
         <v>-147627.18470634</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>68.76000000000001</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5265,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5302,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5339,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5376,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5413,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5450,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5487,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5524,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5561,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5598,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5635,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5672,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5709,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5746,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5783,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5820,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5857,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5894,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5931,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5968,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +6005,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +6042,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +6079,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6116,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6153,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6190,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6227,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6264,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6297,17 @@
         <v>-315269.88861127</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>68.40000000000001</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6336,17 @@
         <v>-253184.93421127</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>68.41</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6379,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6416,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6453,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6490,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6527,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6560,17 @@
         <v>-262615.81501127</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>68.45</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6603,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6640,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6673,17 @@
         <v>-262615.81501127</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>68.45</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6712,17 @@
         <v>-320518.78421127</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>68.45</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6751,17 @@
         <v>-313397.29555277</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>68.19</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6790,17 @@
         <v>-313597.29555277</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>68.64</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6829,17 @@
         <v>-339909.20635277</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>68.29000000000001</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6868,17 @@
         <v>-339409.20635277</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>68.11</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6907,17 @@
         <v>-492443.35435277</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>68.18000000000001</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6946,17 @@
         <v>-492340.40135277</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>67.8</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6985,17 @@
         <v>-495340.40135277</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>68</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +7024,17 @@
         <v>-497088.40135277</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>67.98999999999999</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +7063,17 @@
         <v>-492679.57853482</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>67.90000000000001</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +7102,17 @@
         <v>-538280.49243482</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>68.06</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +7141,17 @@
         <v>-556075.77903482</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>67.7</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +7180,17 @@
         <v>-556075.77903482</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>67.59999999999999</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +7219,17 @@
         <v>-556030.87943482</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>67.59999999999999</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +7258,17 @@
         <v>-556030.87943482</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>67.64</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,7 +7297,7 @@
         <v>-1060971.87653482</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>67.64</v>
@@ -6597,7 +7305,7 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L188" t="n">
@@ -6628,7 +7336,7 @@
         <v>-1088667.91693482</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>67.56</v>
@@ -6667,7 +7375,7 @@
         <v>-1088667.91693482</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>67.55</v>
@@ -6706,7 +7414,7 @@
         <v>-1079867.91693482</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>67.55</v>
@@ -6745,7 +7453,7 @@
         <v>-1068067.91693482</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>67.90000000000001</v>
@@ -6784,7 +7492,7 @@
         <v>-1080718.68343482</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>68.22</v>
@@ -6823,7 +7531,7 @@
         <v>-954060.97003482</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>68.12</v>
@@ -6862,7 +7570,7 @@
         <v>-868189.99513482</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>68.15000000000001</v>
@@ -6901,9 +7609,11 @@
         <v>-851929.41713482</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>68.29000000000001</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -6938,9 +7648,11 @@
         <v>-851301.11713482</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>68.62</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -6975,9 +7687,11 @@
         <v>-835417.12843482</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>68.87</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7012,9 +7726,11 @@
         <v>-835337.91243482</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>68.97</v>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7049,9 +7765,11 @@
         <v>-835258.51873482</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>69</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -8381,9 +9099,11 @@
         <v>-974629.16543482</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>68.70999999999999</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8418,9 +9138,11 @@
         <v>17925302.38966518</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -12636,16 +13358,18 @@
         <v>17604089.79590899</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L351" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
       <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
@@ -12671,11 +13395,15 @@
         <v>17604097.79590899</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12704,11 +13432,15 @@
         <v>17713645.92620899</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12737,11 +13469,15 @@
         <v>17764941.08150899</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12770,11 +13506,15 @@
         <v>17800842.31040899</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12803,11 +13543,15 @@
         <v>17940128.05180899</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12836,11 +13580,15 @@
         <v>18154864.92370899</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12869,11 +13617,15 @@
         <v>18382781.22910899</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12902,11 +13654,15 @@
         <v>18478644.14430899</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12935,11 +13691,15 @@
         <v>18344023.55240899</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12968,11 +13728,15 @@
         <v>18381596.45580899</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13001,11 +13765,15 @@
         <v>18376901.09020899</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13034,11 +13802,15 @@
         <v>18592337.13382144</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13067,11 +13839,15 @@
         <v>18490076.23952144</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13100,11 +13876,15 @@
         <v>18467018.59123401</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13133,11 +13913,15 @@
         <v>18375020.55793401</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13166,11 +13950,15 @@
         <v>18375020.55793401</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13199,11 +13987,15 @@
         <v>18411195.99358343</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13232,11 +14024,15 @@
         <v>18411179.99358343</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13265,11 +14061,15 @@
         <v>18475241.38808343</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13298,11 +14098,15 @@
         <v>18515241.38808343</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13331,11 +14135,15 @@
         <v>18586782.81028343</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13364,11 +14172,15 @@
         <v>18583333.69288343</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13397,11 +14209,15 @@
         <v>18504675.10008343</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13430,11 +14246,15 @@
         <v>18526042.06418343</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13463,11 +14283,15 @@
         <v>18852509.78028343</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13496,11 +14320,15 @@
         <v>19023192.44308343</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13529,11 +14357,15 @@
         <v>18988087.87308343</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13562,11 +14394,15 @@
         <v>19065300.94148343</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13595,11 +14431,15 @@
         <v>19708792.4865933</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13628,11 +14468,15 @@
         <v>19748337.4694933</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13661,11 +14505,15 @@
         <v>19678026.4581933</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13694,11 +14542,15 @@
         <v>19833087.46639782</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13727,11 +14579,15 @@
         <v>20618719.22600907</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13760,11 +14616,15 @@
         <v>21335151.81229658</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13793,11 +14653,15 @@
         <v>20953596.55277726</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13826,11 +14690,15 @@
         <v>20773145.82197726</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13859,11 +14727,15 @@
         <v>20979407.70477018</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13892,11 +14764,15 @@
         <v>20940273.20017018</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13925,11 +14801,15 @@
         <v>21135029.15207018</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13958,11 +14838,15 @@
         <v>21021888.62827018</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13991,11 +14875,15 @@
         <v>21002614.20987018</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14024,11 +14912,15 @@
         <v>20805537.68037018</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14057,11 +14949,15 @@
         <v>20887407.28334949</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14090,11 +14986,15 @@
         <v>20503810.75534949</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14123,11 +15023,15 @@
         <v>20608249.13694949</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14156,14 +15060,16 @@
         <v>20693444.70484949</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="inlineStr"/>
     </row>
     <row r="398">
@@ -14189,7 +15095,7 @@
         <v>20693444.70484949</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14222,7 +15128,7 @@
         <v>20651404.06864949</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14255,7 +15161,7 @@
         <v>20583352.09394949</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14288,7 +15194,7 @@
         <v>20595018.36194948</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14321,7 +15227,7 @@
         <v>20595018.36194948</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14354,7 +15260,7 @@
         <v>20493048.62474949</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14387,7 +15293,7 @@
         <v>20413061.62554948</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14420,7 +15326,7 @@
         <v>20317520.52084948</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14453,7 +15359,7 @@
         <v>20309447.60464948</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14486,7 +15392,7 @@
         <v>20710109.17694948</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14519,7 +15425,7 @@
         <v>20714295.68904948</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14552,7 +15458,7 @@
         <v>21005116.39300307</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14585,7 +15491,7 @@
         <v>20802630.21523301</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14618,7 +15524,7 @@
         <v>20749971.80523301</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14684,7 +15590,7 @@
         <v>20489181.80023301</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14816,7 +15722,7 @@
         <v>20886712.30253302</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15179,7 +16085,7 @@
         <v>20809653.54279375</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15212,7 +16118,7 @@
         <v>20882424.06679375</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15245,7 +16151,7 @@
         <v>20883394.06679375</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15278,7 +16184,7 @@
         <v>20833323.43209375</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15806,7 +16712,7 @@
         <v>21082987.56845542</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15839,7 +16745,7 @@
         <v>21061719.83305542</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15872,7 +16778,7 @@
         <v>21068408.15595542</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15905,7 +16811,7 @@
         <v>21020941.87535542</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15938,7 +16844,7 @@
         <v>20922366.81855542</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16169,7 +17075,7 @@
         <v>20930841.33675542</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16202,7 +17108,7 @@
         <v>20930841.33675542</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16235,7 +17141,7 @@
         <v>20930841.33675542</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16268,7 +17174,7 @@
         <v>20890656.91045542</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16301,7 +17207,7 @@
         <v>20899693.54415542</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16334,7 +17240,7 @@
         <v>20900845.52035542</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16367,7 +17273,7 @@
         <v>20932344.77105542</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16400,7 +17306,7 @@
         <v>20881822.63785542</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16433,7 +17339,7 @@
         <v>20881862.63785542</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16796,7 +17702,7 @@
         <v>20456714.46175542</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16829,7 +17735,7 @@
         <v>20490753.70905542</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16862,7 +17768,7 @@
         <v>20600394.61515542</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16895,7 +17801,7 @@
         <v>20600094.61515542</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16928,7 +17834,7 @@
         <v>20498334.24735542</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16961,7 +17867,7 @@
         <v>20497271.24735542</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17027,7 +17933,7 @@
         <v>20489647.17425542</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17060,7 +17966,7 @@
         <v>20489647.17425542</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17093,7 +17999,7 @@
         <v>20526965.13995542</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17126,7 +18032,7 @@
         <v>20523915.41415542</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17159,7 +18065,7 @@
         <v>20589889.35315542</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17192,7 +18098,7 @@
         <v>20671586.72585542</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17225,7 +18131,7 @@
         <v>20730017.21938399</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17258,7 +18164,7 @@
         <v>20690788.84191256</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17291,7 +18197,7 @@
         <v>20692367.83615755</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17324,7 +18230,7 @@
         <v>20697696.71255755</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17357,7 +18263,7 @@
         <v>20668309.52265755</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17555,7 +18461,7 @@
         <v>20653795.07825755</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17720,7 +18626,7 @@
         <v>20648042.85424926</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17753,7 +18659,7 @@
         <v>21077781.49694926</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17786,7 +18692,7 @@
         <v>21076316.35324926</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17819,7 +18725,7 @@
         <v>21034027.94914926</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17852,7 +18758,7 @@
         <v>21034027.94914926</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17885,7 +18791,7 @@
         <v>21034027.94914926</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17951,7 +18857,7 @@
         <v>21024462.74794926</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17984,7 +18890,7 @@
         <v>21010437.72353271</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18017,7 +18923,7 @@
         <v>20993198.16653271</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18050,7 +18956,7 @@
         <v>21027470.45193271</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18116,7 +19022,7 @@
         <v>20924452.40943271</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18182,7 +19088,7 @@
         <v>20932119.84343271</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18215,7 +19121,7 @@
         <v>20950658.20263271</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18413,7 +19319,7 @@
         <v>20964254.96823271</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18446,7 +19352,7 @@
         <v>20939073.02953271</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18479,7 +19385,7 @@
         <v>20926058.04883271</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19766,7 +20672,7 @@
         <v>21014742.18008769</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19799,7 +20705,7 @@
         <v>21027268.02568769</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19832,7 +20738,7 @@
         <v>21015491.30318769</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19865,7 +20771,7 @@
         <v>21015491.30318769</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19898,7 +20804,7 @@
         <v>21015491.30318769</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19931,7 +20837,7 @@
         <v>21018974.30318769</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19964,7 +20870,7 @@
         <v>21019016.44028769</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20063,7 +20969,7 @@
         <v>21036718.48848769</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20096,7 +21002,7 @@
         <v>21023293.75338769</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20129,7 +21035,7 @@
         <v>21023307.49918769</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20162,7 +21068,7 @@
         <v>21023307.49918769</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20195,7 +21101,7 @@
         <v>21023307.49918769</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20228,7 +21134,7 @@
         <v>21009882.76418769</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20261,7 +21167,7 @@
         <v>21351264.77892341</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20294,7 +21200,7 @@
         <v>21260035.96172341</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20327,7 +21233,7 @@
         <v>21164526.78962341</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20360,7 +21266,7 @@
         <v>21164426.78962341</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20393,7 +21299,7 @@
         <v>21185084.79522341</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20426,7 +21332,7 @@
         <v>21184118.79522341</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20459,7 +21365,7 @@
         <v>21228976.74712342</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20492,7 +21398,7 @@
         <v>21159295.36772342</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20525,7 +21431,7 @@
         <v>21166366.66492342</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20624,7 +21530,7 @@
         <v>21158890.14692342</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -23957,7 +24863,7 @@
         <v>21389341.67553894</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23990,7 +24896,7 @@
         <v>21391788.63163894</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24023,7 +24929,7 @@
         <v>21391788.63163894</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24056,7 +24962,7 @@
         <v>21391788.63163894</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24089,7 +24995,7 @@
         <v>21383900.63283894</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24122,7 +25028,7 @@
         <v>21334315.17143894</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24155,7 +25061,7 @@
         <v>21338701.86713894</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24188,7 +25094,7 @@
         <v>21338722.88973894</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24221,7 +25127,7 @@
         <v>21405549.27343894</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24254,7 +25160,7 @@
         <v>20295986.71823894</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24353,7 +25259,7 @@
         <v>20288377.29593894</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24386,7 +25292,7 @@
         <v>20286208.81263894</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24419,7 +25325,7 @@
         <v>20320918.83063894</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24452,7 +25358,7 @@
         <v>20340877.60265224</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24485,7 +25391,7 @@
         <v>20359649.72710685</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24518,7 +25424,7 @@
         <v>20356096.53960685</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24551,7 +25457,7 @@
         <v>20329539.72470685</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24584,7 +25490,7 @@
         <v>20261792.21600685</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24617,7 +25523,7 @@
         <v>20184718.68980685</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24650,7 +25556,7 @@
         <v>20246194.05080685</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24683,7 +25589,7 @@
         <v>20069227.00740685</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24716,7 +25622,7 @@
         <v>20059862.24490685</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24749,7 +25655,7 @@
         <v>20051885.70370685</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24782,7 +25688,7 @@
         <v>20051925.26680685</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24815,7 +25721,7 @@
         <v>20034256.53010685</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24848,7 +25754,7 @@
         <v>20043163.44860685</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24881,7 +25787,7 @@
         <v>20046597.07350685</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24914,7 +25820,7 @@
         <v>20049367.28543422</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24925,6 +25831,6 @@
       <c r="M723" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest XLM.xlsx
+++ b/BackTest/2020-01-21 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2002,17 +2002,11 @@
         <v>187136.60753526</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>68.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2041,17 +2035,11 @@
         <v>187144.60753526</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>68.34999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2080,17 +2068,11 @@
         <v>183694.62753526</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>68.68000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2119,17 +2101,11 @@
         <v>178675.08633526</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>68.26000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2158,17 +2134,11 @@
         <v>179218.60553526</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>67.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2201,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2238,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2275,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2308,17 +2266,11 @@
         <v>179912.42233526</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>67.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2351,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2384,17 +2332,11 @@
         <v>37860.18403526003</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>67.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2423,17 +2365,11 @@
         <v>57854.18403526003</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>68.31999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2462,17 +2398,11 @@
         <v>73401.25913526003</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>68.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2501,17 +2431,11 @@
         <v>73363.52323526003</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>68.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2540,17 +2464,11 @@
         <v>69673.87573526002</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>68.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2579,17 +2497,11 @@
         <v>69673.87573526002</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>68.18000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2618,17 +2530,11 @@
         <v>68629.74693526002</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>68.18000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2657,17 +2563,11 @@
         <v>68629.74693526002</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>68.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2696,17 +2596,11 @@
         <v>67565.74693526002</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>68.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2735,17 +2629,11 @@
         <v>47719.31043526002</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>67.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2774,17 +2662,11 @@
         <v>48148.31043526002</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>67.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2813,17 +2695,11 @@
         <v>48148.31043526002</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>67.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2852,17 +2728,11 @@
         <v>111284.16043526</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>67.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2891,17 +2761,11 @@
         <v>111310.58383526</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2930,17 +2794,11 @@
         <v>111323.12773526</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>68.18000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2969,17 +2827,11 @@
         <v>59703.61833526001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>68.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3008,17 +2860,11 @@
         <v>59703.61833526001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>68.23999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3047,17 +2893,11 @@
         <v>59703.61833526001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>68.23999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3086,17 +2926,11 @@
         <v>68459.41103526001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>68.23999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3125,17 +2959,11 @@
         <v>68459.41103526001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>68.45999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3164,17 +2992,11 @@
         <v>73459.41103526001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>68.45999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3203,17 +3025,11 @@
         <v>73459.41103526001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>68.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3246,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3279,17 +3091,11 @@
         <v>83774.23333526001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>68.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3359,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3396,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3433,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3470,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3507,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3544,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3581,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3618,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3655,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3692,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3729,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3766,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3803,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3840,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3877,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3914,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3951,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3988,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4025,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4099,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4169,17 +3883,11 @@
         <v>-190514.97160277</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>67.98999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4208,17 +3916,11 @@
         <v>-190514.97160277</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>67.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4247,17 +3949,11 @@
         <v>-180577.62700277</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>67.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4286,17 +3982,11 @@
         <v>-157477.62700277</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>68.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4325,17 +4015,11 @@
         <v>-159071.82430277</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>68.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4364,17 +4048,11 @@
         <v>-159585.78630277</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>68.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4403,17 +4081,11 @@
         <v>-159585.78630277</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>68.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4442,17 +4114,11 @@
         <v>-168590.33640277</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>68.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4481,17 +4147,11 @@
         <v>-168361.18340277</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>68.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4520,17 +4180,11 @@
         <v>-168561.18340277</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>68.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4559,17 +4213,11 @@
         <v>-168042.18340277</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>68.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4598,17 +4246,11 @@
         <v>-161497.82860277</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>68.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4637,17 +4279,11 @@
         <v>-162498.82860277</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>68.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4676,17 +4312,11 @@
         <v>-82705.76680276997</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>68.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4715,17 +4345,11 @@
         <v>272116.44493003</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>68.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4754,17 +4378,11 @@
         <v>269377.93963003</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4793,17 +4411,11 @@
         <v>252796.34333003</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>68.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4832,17 +4444,11 @@
         <v>253279.18463003</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>68.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4871,17 +4477,11 @@
         <v>132795.43363003</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>68.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4910,17 +4510,11 @@
         <v>-207147.36936997</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>68.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4949,17 +4543,11 @@
         <v>-207147.36936997</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>68.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4988,17 +4576,11 @@
         <v>-178595.28126997</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>68.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5027,17 +4609,11 @@
         <v>-129896.40906997</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>68.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5066,17 +4642,11 @@
         <v>-157587.40906997</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>68.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5105,17 +4675,11 @@
         <v>-148462.18470634</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>68.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5144,17 +4708,11 @@
         <v>-148462.18470634</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>68.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5183,17 +4741,11 @@
         <v>-147927.18470634</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>68.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5222,17 +4774,11 @@
         <v>-147627.18470634</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>68.76000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5265,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5339,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5376,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5413,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5450,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5487,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5524,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5561,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5635,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5672,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5709,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5746,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5783,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5820,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5857,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5894,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5931,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5968,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6005,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6042,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6079,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6116,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6153,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6190,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6227,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6264,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6297,17 +5731,11 @@
         <v>-315269.88861127</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>68.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6336,17 +5764,11 @@
         <v>-253184.93421127</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>68.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6379,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6416,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6453,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6527,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6560,17 +5962,11 @@
         <v>-262615.81501127</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>68.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6603,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6640,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6673,17 +6061,11 @@
         <v>-262615.81501127</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>68.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6712,17 +6094,11 @@
         <v>-320518.78421127</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>68.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6751,17 +6127,11 @@
         <v>-313397.29555277</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>68.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6790,17 +6160,11 @@
         <v>-313597.29555277</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>68.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6829,17 +6193,11 @@
         <v>-339909.20635277</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>68.29000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6868,17 +6226,11 @@
         <v>-339409.20635277</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>68.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6907,17 +6259,11 @@
         <v>-492443.35435277</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>68.18000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6946,17 +6292,11 @@
         <v>-492340.40135277</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>67.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6985,17 +6325,11 @@
         <v>-495340.40135277</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7024,17 +6358,11 @@
         <v>-497088.40135277</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>67.98999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7063,17 +6391,11 @@
         <v>-492679.57853482</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>67.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7110,7 +6432,7 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -7570,11 +6892,9 @@
         <v>-868189.99513482</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>68.15000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7609,11 +6929,9 @@
         <v>-851929.41713482</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>68.29000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7648,11 +6966,9 @@
         <v>-851301.11713482</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>68.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7687,11 +7003,9 @@
         <v>-835417.12843482</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>68.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7726,11 +7040,9 @@
         <v>-835337.91243482</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>68.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7765,11 +7077,9 @@
         <v>-835258.51873482</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -9099,11 +8409,9 @@
         <v>-974629.16543482</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>68.70999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -9138,11 +8446,9 @@
         <v>17925302.38966518</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>68.54000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9214,18 +8520,16 @@
         <v>17925302.38966518</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
@@ -9251,15 +8555,11 @@
         <v>17925302.38966518</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9292,11 +8592,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9329,11 +8625,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9366,11 +8658,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9403,11 +8691,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9440,11 +8724,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9473,15 +8753,11 @@
         <v>17862891.06306518</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9510,15 +8786,11 @@
         <v>17808701.31216518</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9551,11 +8823,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9588,11 +8856,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +8889,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9662,11 +8922,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9699,11 +8955,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9736,11 +8988,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9773,11 +9021,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9810,11 +9054,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9847,11 +9087,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9884,11 +9120,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9921,11 +9153,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9958,11 +9186,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9995,11 +9219,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10032,11 +9252,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10069,11 +9285,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10106,11 +9318,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10143,11 +9351,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10176,15 +9380,11 @@
         <v>17796992.11086518</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10213,15 +9413,11 @@
         <v>17798103.11086518</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10250,15 +9446,11 @@
         <v>17808086.32266518</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10287,15 +9479,11 @@
         <v>17817482.55156519</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10324,15 +9512,11 @@
         <v>17835408.38236519</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10361,15 +9545,11 @@
         <v>17802006.45806519</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10398,15 +9578,11 @@
         <v>17802006.45806519</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10435,15 +9611,11 @@
         <v>17664665.77116518</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10472,15 +9644,11 @@
         <v>17664665.77116518</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10509,15 +9677,11 @@
         <v>17668439.70276519</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10546,15 +9710,11 @@
         <v>17718515.15876519</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10583,15 +9743,11 @@
         <v>17721993.55260845</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10620,15 +9776,11 @@
         <v>17643954.97660844</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10657,15 +9809,11 @@
         <v>17661078.196893</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10694,15 +9842,11 @@
         <v>17634911.736993</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10735,11 +9879,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10772,11 +9912,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10809,11 +9945,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +9978,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10883,11 +10011,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10920,11 +10044,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10957,11 +10077,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10994,11 +10110,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11031,11 +10143,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11068,11 +10176,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11105,11 +10209,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11142,11 +10242,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11179,11 +10275,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11216,11 +10308,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11253,11 +10341,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11290,11 +10374,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11327,11 +10407,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11364,11 +10440,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11401,11 +10473,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11438,11 +10506,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11471,15 +10535,11 @@
         <v>17554024.10051345</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11512,11 +10572,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11549,11 +10605,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11586,11 +10638,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11623,11 +10671,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11660,11 +10704,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11697,11 +10737,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11734,11 +10770,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11771,11 +10803,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11808,11 +10836,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11845,11 +10869,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11882,11 +10902,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11919,11 +10935,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11956,11 +10968,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11993,11 +11001,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12030,11 +11034,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +11067,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12104,11 +11100,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12141,11 +11133,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12178,11 +11166,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12215,11 +11199,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12252,11 +11232,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12289,11 +11265,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12326,11 +11298,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12363,11 +11331,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12400,11 +11364,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12437,11 +11397,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12474,11 +11430,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12511,11 +11463,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12548,11 +11496,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12581,15 +11525,11 @@
         <v>17624279.23027476</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12618,15 +11558,11 @@
         <v>17624531.28347476</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12655,15 +11591,11 @@
         <v>17785076.93307476</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12692,15 +11624,11 @@
         <v>17785076.93307476</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12729,15 +11657,11 @@
         <v>17785159.97127476</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12766,15 +11690,11 @@
         <v>17782066.13917476</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12803,15 +11723,11 @@
         <v>17706787.75807476</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12840,15 +11756,11 @@
         <v>17716498.62627476</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12877,15 +11789,11 @@
         <v>17716498.62627476</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12914,15 +11822,11 @@
         <v>17171627.16537476</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12951,15 +11855,11 @@
         <v>17171962.38347476</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12988,15 +11888,11 @@
         <v>17121579.38347476</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13025,15 +11921,11 @@
         <v>17121445.93897476</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13062,15 +11954,11 @@
         <v>17121445.93897476</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13099,15 +11987,11 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13136,15 +12020,11 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13173,15 +12053,11 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13210,15 +12086,11 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13247,15 +12119,11 @@
         <v>17327194.25120899</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13284,15 +12152,11 @@
         <v>17382803.04350899</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13321,15 +12185,11 @@
         <v>17736165.09020899</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13358,15 +12218,11 @@
         <v>17604089.79590899</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13395,15 +12251,11 @@
         <v>17604097.79590899</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13432,15 +12284,11 @@
         <v>17713645.92620899</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13469,15 +12317,11 @@
         <v>17764941.08150899</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13506,15 +12350,11 @@
         <v>17800842.31040899</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13543,15 +12383,11 @@
         <v>17940128.05180899</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13580,15 +12416,11 @@
         <v>18154864.92370899</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13617,15 +12449,11 @@
         <v>18382781.22910899</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13654,15 +12482,11 @@
         <v>18478644.14430899</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13691,15 +12515,11 @@
         <v>18344023.55240899</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13728,15 +12548,11 @@
         <v>18381596.45580899</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13765,15 +12581,11 @@
         <v>18376901.09020899</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13802,15 +12614,11 @@
         <v>18592337.13382144</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13839,15 +12647,11 @@
         <v>18490076.23952144</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13876,15 +12680,11 @@
         <v>18467018.59123401</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13913,15 +12713,11 @@
         <v>18375020.55793401</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13950,15 +12746,11 @@
         <v>18375020.55793401</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13987,15 +12779,11 @@
         <v>18411195.99358343</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14024,15 +12812,11 @@
         <v>18411179.99358343</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14061,15 +12845,11 @@
         <v>18475241.38808343</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14098,15 +12878,11 @@
         <v>18515241.38808343</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14135,15 +12911,11 @@
         <v>18586782.81028343</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14172,15 +12944,11 @@
         <v>18583333.69288343</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14209,15 +12977,11 @@
         <v>18504675.10008343</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14246,15 +13010,11 @@
         <v>18526042.06418343</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14287,11 +13047,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14324,11 +13080,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14357,15 +13109,11 @@
         <v>18988087.87308343</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14394,15 +13142,11 @@
         <v>19065300.94148343</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14435,11 +13179,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14472,11 +13212,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +13245,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14546,11 +13278,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14583,11 +13311,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14620,11 +13344,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14657,11 +13377,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14694,11 +13410,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14731,11 +13443,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14768,11 +13476,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14805,11 +13509,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14842,11 +13542,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14879,11 +13575,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14916,11 +13608,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14953,11 +13641,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14990,11 +13674,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15027,11 +13707,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15060,16 +13736,14 @@
         <v>20693444.70484949</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
       <c r="M397" t="inlineStr"/>
     </row>
     <row r="398">
@@ -15095,7 +13769,7 @@
         <v>20693444.70484949</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15128,7 +13802,7 @@
         <v>20651404.06864949</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15161,7 +13835,7 @@
         <v>20583352.09394949</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15194,7 +13868,7 @@
         <v>20595018.36194948</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15227,7 +13901,7 @@
         <v>20595018.36194948</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15260,7 +13934,7 @@
         <v>20493048.62474949</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15293,7 +13967,7 @@
         <v>20413061.62554948</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15326,7 +14000,7 @@
         <v>20317520.52084948</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15359,7 +14033,7 @@
         <v>20309447.60464948</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15392,7 +14066,7 @@
         <v>20710109.17694948</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15425,7 +14099,7 @@
         <v>20714295.68904948</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15458,7 +14132,7 @@
         <v>21005116.39300307</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15491,7 +14165,7 @@
         <v>20802630.21523301</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15524,7 +14198,7 @@
         <v>20749971.80523301</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -17075,7 +15749,7 @@
         <v>20930841.33675542</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17108,7 +15782,7 @@
         <v>20930841.33675542</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17141,7 +15815,7 @@
         <v>20930841.33675542</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17174,7 +15848,7 @@
         <v>20890656.91045542</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17207,7 +15881,7 @@
         <v>20899693.54415542</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17240,7 +15914,7 @@
         <v>20900845.52035542</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17273,7 +15947,7 @@
         <v>20932344.77105542</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17306,7 +15980,7 @@
         <v>20881822.63785542</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17339,7 +16013,7 @@
         <v>20881862.63785542</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -19088,7 +17762,7 @@
         <v>20932119.84343271</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19121,7 +17795,7 @@
         <v>20950658.20263271</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -24269,7 +22943,7 @@
         <v>21327937.10452509</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24302,7 +22976,7 @@
         <v>21355568.46792509</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24335,7 +23009,7 @@
         <v>21342404.39829965</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24368,7 +23042,7 @@
         <v>21293480.88889965</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24401,7 +23075,7 @@
         <v>21227155.31599965</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24434,7 +23108,7 @@
         <v>21229792.53463894</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24467,7 +23141,7 @@
         <v>21229792.53463894</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24566,7 +23240,7 @@
         <v>21271713.60923894</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24929,7 +23603,7 @@
         <v>21391788.63163894</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24962,7 +23636,7 @@
         <v>21391788.63163894</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24995,7 +23669,7 @@
         <v>21383900.63283894</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25028,7 +23702,7 @@
         <v>21334315.17143894</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25061,7 +23735,7 @@
         <v>21338701.86713894</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25094,7 +23768,7 @@
         <v>21338722.88973894</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25127,7 +23801,7 @@
         <v>21405549.27343894</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25160,7 +23834,7 @@
         <v>20295986.71823894</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25193,7 +23867,7 @@
         <v>20393333.95503894</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25226,7 +23900,7 @@
         <v>20346832.17163894</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25259,7 +23933,7 @@
         <v>20288377.29593894</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25292,7 +23966,7 @@
         <v>20286208.81263894</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25325,7 +23999,7 @@
         <v>20320918.83063894</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25358,7 +24032,7 @@
         <v>20340877.60265224</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25391,7 +24065,7 @@
         <v>20359649.72710685</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25424,7 +24098,7 @@
         <v>20356096.53960685</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25457,7 +24131,7 @@
         <v>20329539.72470685</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25490,7 +24164,7 @@
         <v>20261792.21600685</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25523,7 +24197,7 @@
         <v>20184718.68980685</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25556,7 +24230,7 @@
         <v>20246194.05080685</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25589,7 +24263,7 @@
         <v>20069227.00740685</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25622,7 +24296,7 @@
         <v>20059862.24490685</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25655,7 +24329,7 @@
         <v>20051885.70370685</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25688,7 +24362,7 @@
         <v>20051925.26680685</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25721,7 +24395,7 @@
         <v>20034256.53010685</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25754,7 +24428,7 @@
         <v>20043163.44860685</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25787,7 +24461,7 @@
         <v>20046597.07350685</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25831,6 +24505,6 @@
       <c r="M723" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest XLM.xlsx
+++ b/BackTest/2020-01-21 BackTest XLM.xlsx
@@ -2662,10 +2662,14 @@
         <v>48148.31043526002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>67.73999999999999</v>
+      </c>
+      <c r="J69" t="n">
+        <v>67.73999999999999</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2695,11 +2699,19 @@
         <v>48148.31043526002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="J70" t="n">
+        <v>67.73999999999999</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2740,19 @@
         <v>111284.16043526</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="J71" t="n">
+        <v>67.73999999999999</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,10 +2781,14 @@
         <v>111310.58383526</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>68</v>
+      </c>
+      <c r="J72" t="n">
+        <v>68</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2794,11 +2818,19 @@
         <v>111323.12773526</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="J73" t="n">
+        <v>68</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2862,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>68</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3982,10 +4020,14 @@
         <v>-157477.62700277</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="J109" t="n">
+        <v>68.02</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
@@ -4015,11 +4057,19 @@
         <v>-159071.82430277</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="J110" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4101,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4576,10 +4632,14 @@
         <v>-178595.28126997</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>68.12</v>
+      </c>
+      <c r="J127" t="n">
+        <v>68.12</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
@@ -4609,11 +4669,19 @@
         <v>-129896.40906997</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>68.17</v>
+      </c>
+      <c r="J128" t="n">
+        <v>68.12</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4713,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>68.12</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6333,17 @@
         <v>-492443.35435277</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>68.18000000000001</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6372,17 @@
         <v>-492340.40135277</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>67.8</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6411,17 @@
         <v>-495340.40135277</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>68</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6450,17 @@
         <v>-497088.40135277</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>67.98999999999999</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6489,17 @@
         <v>-492679.57853482</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>67.90000000000001</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6432,7 +6536,7 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -6892,9 +6996,11 @@
         <v>-868189.99513482</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>68.15000000000001</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -6929,9 +7035,11 @@
         <v>-851929.41713482</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>68.29000000000001</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -6966,9 +7074,11 @@
         <v>-851301.11713482</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>68.62</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -8520,16 +8630,18 @@
         <v>17925302.38966518</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
       <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
@@ -8555,11 +8667,15 @@
         <v>17925302.38966518</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8592,7 +8708,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8625,7 +8745,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8658,7 +8782,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8691,7 +8819,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8724,7 +8856,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8753,11 +8889,15 @@
         <v>17862891.06306518</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8786,11 +8926,15 @@
         <v>17808701.31216518</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8823,7 +8967,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8856,7 +9004,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8889,7 +9041,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8922,7 +9078,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8955,7 +9115,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8988,7 +9152,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9021,7 +9189,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9054,7 +9226,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9087,7 +9263,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9120,7 +9300,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9153,7 +9337,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9186,7 +9374,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9219,7 +9411,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9252,7 +9448,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9285,7 +9485,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9318,7 +9522,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9351,7 +9559,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9380,11 +9592,15 @@
         <v>17796992.11086518</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9413,11 +9629,15 @@
         <v>17798103.11086518</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9446,11 +9666,15 @@
         <v>17808086.32266518</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9479,11 +9703,15 @@
         <v>17817482.55156519</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9512,11 +9740,15 @@
         <v>17835408.38236519</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9545,11 +9777,15 @@
         <v>17802006.45806519</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9578,11 +9814,15 @@
         <v>17802006.45806519</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9611,11 +9851,15 @@
         <v>17664665.77116518</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9644,11 +9888,15 @@
         <v>17664665.77116518</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9677,11 +9925,15 @@
         <v>17668439.70276519</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9710,11 +9962,15 @@
         <v>17718515.15876519</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9743,11 +9999,15 @@
         <v>17721993.55260845</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9776,11 +10036,15 @@
         <v>17643954.97660844</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9809,11 +10073,15 @@
         <v>17661078.196893</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9842,11 +10110,15 @@
         <v>17634911.736993</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9879,7 +10151,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9912,7 +10188,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9945,7 +10225,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9978,7 +10262,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10011,7 +10299,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10044,7 +10336,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10077,7 +10373,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10110,7 +10410,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10143,7 +10447,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10176,7 +10484,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10209,7 +10521,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10242,7 +10558,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10275,7 +10595,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10308,7 +10632,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10341,7 +10669,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10374,7 +10706,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10407,7 +10743,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10440,7 +10780,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10473,7 +10817,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10506,7 +10854,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10535,11 +10887,15 @@
         <v>17554024.10051345</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10572,7 +10928,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10605,7 +10965,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10638,7 +11002,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10671,7 +11039,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10704,7 +11076,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10737,7 +11113,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10770,7 +11150,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10803,7 +11187,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10836,7 +11224,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10869,7 +11261,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10902,7 +11298,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10935,7 +11335,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10968,7 +11372,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11001,7 +11409,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11034,7 +11446,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11067,7 +11483,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11100,7 +11520,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11133,7 +11557,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11166,7 +11594,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11199,7 +11631,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11232,7 +11668,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11265,7 +11705,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11298,7 +11742,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11331,7 +11779,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11364,7 +11816,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11397,7 +11853,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11430,7 +11890,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11463,7 +11927,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11496,7 +11964,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11525,11 +11997,15 @@
         <v>17624279.23027476</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11558,11 +12034,15 @@
         <v>17624531.28347476</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11591,11 +12071,15 @@
         <v>17785076.93307476</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11624,11 +12108,15 @@
         <v>17785076.93307476</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11657,11 +12145,15 @@
         <v>17785159.97127476</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11690,11 +12182,15 @@
         <v>17782066.13917476</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11723,11 +12219,15 @@
         <v>17706787.75807476</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11756,11 +12256,15 @@
         <v>17716498.62627476</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11789,11 +12293,15 @@
         <v>17716498.62627476</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11822,11 +12330,15 @@
         <v>17171627.16537476</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11855,11 +12367,15 @@
         <v>17171962.38347476</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11888,11 +12404,15 @@
         <v>17121579.38347476</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11921,11 +12441,15 @@
         <v>17121445.93897476</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11954,11 +12478,15 @@
         <v>17121445.93897476</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11987,11 +12515,15 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12020,11 +12552,15 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12053,11 +12589,15 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12086,11 +12626,15 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12119,11 +12663,15 @@
         <v>17327194.25120899</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12152,11 +12700,15 @@
         <v>17382803.04350899</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12185,11 +12737,15 @@
         <v>17736165.09020899</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12218,11 +12774,15 @@
         <v>17604089.79590899</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12251,11 +12811,15 @@
         <v>17604097.79590899</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12284,11 +12848,15 @@
         <v>17713645.92620899</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12317,11 +12885,15 @@
         <v>17764941.08150899</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12350,11 +12922,15 @@
         <v>17800842.31040899</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12383,11 +12959,15 @@
         <v>17940128.05180899</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12416,11 +12996,15 @@
         <v>18154864.92370899</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12449,11 +13033,15 @@
         <v>18382781.22910899</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12482,11 +13070,15 @@
         <v>18478644.14430899</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12515,11 +13107,15 @@
         <v>18344023.55240899</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12548,11 +13144,15 @@
         <v>18381596.45580899</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12581,11 +13181,15 @@
         <v>18376901.09020899</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12614,11 +13218,15 @@
         <v>18592337.13382144</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12647,11 +13255,15 @@
         <v>18490076.23952144</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12680,11 +13292,15 @@
         <v>18467018.59123401</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12713,11 +13329,15 @@
         <v>18375020.55793401</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12746,11 +13366,15 @@
         <v>18375020.55793401</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12779,11 +13403,15 @@
         <v>18411195.99358343</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12812,11 +13440,15 @@
         <v>18411179.99358343</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12845,11 +13477,15 @@
         <v>18475241.38808343</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12878,11 +13514,15 @@
         <v>18515241.38808343</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12911,11 +13551,15 @@
         <v>18586782.81028343</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12944,11 +13588,15 @@
         <v>18583333.69288343</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12977,11 +13625,15 @@
         <v>18504675.10008343</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13010,11 +13662,15 @@
         <v>18526042.06418343</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13047,7 +13703,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13080,7 +13740,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13109,11 +13773,15 @@
         <v>18988087.87308343</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13142,11 +13810,15 @@
         <v>19065300.94148343</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13179,7 +13851,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13212,7 +13888,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13241,14 +13921,16 @@
         <v>19678026.4581933</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="inlineStr"/>
     </row>
     <row r="383">
@@ -13274,7 +13956,7 @@
         <v>19833087.46639782</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13307,7 +13989,7 @@
         <v>20618719.22600907</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13340,7 +14022,7 @@
         <v>21335151.81229658</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13373,7 +14055,7 @@
         <v>20953596.55277726</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13406,7 +14088,7 @@
         <v>20773145.82197726</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13439,7 +14121,7 @@
         <v>20979407.70477018</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13472,7 +14154,7 @@
         <v>20940273.20017018</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13505,7 +14187,7 @@
         <v>21135029.15207018</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13538,7 +14220,7 @@
         <v>21021888.62827018</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13571,7 +14253,7 @@
         <v>21002614.20987018</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13604,7 +14286,7 @@
         <v>20805537.68037018</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13637,7 +14319,7 @@
         <v>20887407.28334949</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13670,7 +14352,7 @@
         <v>20503810.75534949</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13703,7 +14385,7 @@
         <v>20608249.13694949</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13736,7 +14418,7 @@
         <v>20693444.70484949</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13901,7 +14583,7 @@
         <v>20595018.36194948</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13934,7 +14616,7 @@
         <v>20493048.62474949</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13967,7 +14649,7 @@
         <v>20413061.62554948</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14033,7 +14715,7 @@
         <v>20309447.60464948</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14066,7 +14748,7 @@
         <v>20710109.17694948</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14099,7 +14781,7 @@
         <v>20714295.68904948</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14132,7 +14814,7 @@
         <v>21005116.39300307</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14165,7 +14847,7 @@
         <v>20802630.21523301</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14198,7 +14880,7 @@
         <v>20749971.80523301</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14231,7 +14913,7 @@
         <v>20578157.62353301</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15254,7 +15936,7 @@
         <v>21173772.51995542</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15419,7 +16101,7 @@
         <v>21061719.83305542</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15452,7 +16134,7 @@
         <v>21068408.15595542</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -22943,7 +23625,7 @@
         <v>21327937.10452509</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22976,7 +23658,7 @@
         <v>21355568.46792509</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23009,7 +23691,7 @@
         <v>21342404.39829965</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23042,7 +23724,7 @@
         <v>21293480.88889965</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23075,7 +23757,7 @@
         <v>21227155.31599965</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23108,7 +23790,7 @@
         <v>21229792.53463894</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23141,7 +23823,7 @@
         <v>21229792.53463894</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23240,7 +23922,7 @@
         <v>21271713.60923894</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23603,7 +24285,7 @@
         <v>21391788.63163894</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23636,7 +24318,7 @@
         <v>21391788.63163894</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23669,7 +24351,7 @@
         <v>21383900.63283894</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23702,7 +24384,7 @@
         <v>21334315.17143894</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23735,7 +24417,7 @@
         <v>21338701.86713894</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23768,7 +24450,7 @@
         <v>21338722.88973894</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23801,7 +24483,7 @@
         <v>21405549.27343894</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23834,7 +24516,7 @@
         <v>20295986.71823894</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23867,7 +24549,7 @@
         <v>20393333.95503894</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23900,7 +24582,7 @@
         <v>20346832.17163894</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23933,7 +24615,7 @@
         <v>20288377.29593894</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23966,7 +24648,7 @@
         <v>20286208.81263894</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23999,7 +24681,7 @@
         <v>20320918.83063894</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24032,7 +24714,7 @@
         <v>20340877.60265224</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24065,7 +24747,7 @@
         <v>20359649.72710685</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24098,7 +24780,7 @@
         <v>20356096.53960685</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24131,7 +24813,7 @@
         <v>20329539.72470685</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24164,7 +24846,7 @@
         <v>20261792.21600685</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24197,7 +24879,7 @@
         <v>20184718.68980685</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24230,7 +24912,7 @@
         <v>20246194.05080685</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24263,7 +24945,7 @@
         <v>20069227.00740685</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24296,7 +24978,7 @@
         <v>20059862.24490685</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24329,7 +25011,7 @@
         <v>20051885.70370685</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24362,7 +25044,7 @@
         <v>20051925.26680685</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24395,7 +25077,7 @@
         <v>20034256.53010685</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24428,7 +25110,7 @@
         <v>20043163.44860685</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24461,7 +25143,7 @@
         <v>20046597.07350685</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
